--- a/doc/routes.xlsx
+++ b/doc/routes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-29760" yWindow="460" windowWidth="28800" windowHeight="15980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Page Routes" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
   <si>
     <t>Route</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,50 +59,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user/:id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not logged in, show LOG_IN_VIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logged in, redirect to user/:id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/:id/followings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logged in, show HOME_VIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logged in, show FOLLOWING_LIST_VIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/:id/followers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/notifications</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>logged in, show NOTIFICATION_VIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/search/:keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logged in, show SEARCH_RESULT_VIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get user's basic info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,39 +307,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>user registration(if registration successed, log in)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show REGISTER_VIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/register_fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user registration(if registration successed, log in)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show REGISTRATIOM_FIAL_VIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -511,7 +443,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -540,13 +472,6 @@
       <color theme="1"/>
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="DengXian (正文)"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -568,13 +493,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -860,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -893,159 +815,167 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
+      <c r="A2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>85</v>
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
+      <c r="A10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
+      <c r="A12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>78</v>
+      <c r="A14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1058,168 +988,100 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
@@ -1279,145 +1141,30 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+    <row r="39" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
+  <mergeCells count="8">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1458,71 +1205,71 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>18</v>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="23" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="23" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -1530,7 +1277,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="23" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
@@ -1906,56 +1653,56 @@
     </row>
     <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2338,98 +2085,98 @@
     </row>
     <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2787,80 +2534,80 @@
     </row>
     <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3229,28 +2976,28 @@
     </row>
     <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3647,41 +3394,41 @@
     </row>
     <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>

--- a/doc/routes.xlsx
+++ b/doc/routes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-29760" yWindow="460" windowWidth="28800" windowHeight="15980" tabRatio="500"/>
+    <workbookView xWindow="-31380" yWindow="2140" windowWidth="28800" windowHeight="16000" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Page Routes" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="tweet_api" sheetId="2" r:id="rId4"/>
     <sheet name="notification_api" sheetId="3" r:id="rId5"/>
     <sheet name="tag_api" sheetId="4" r:id="rId6"/>
-    <sheet name="comment_api" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
   <si>
     <t>Route</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,18 +66,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>output example: {resultCode: "success", resultMessage: {id: id, name:name, email: email ...}}, {resultCode: "error", resultMessage: "errorMessage"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name, email, passwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user sign-in</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,22 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/user/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/user/:id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/v1/follows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{id:"id", name:"name} choose one</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/tweets</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,38 +246,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{tweet_id:"", user_id:"", content:"", create_time:""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create a comment( should also invoke "post /notification"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>add a tag( invoke when create tweet with tag)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/tweet/:id/comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get comments for tweet:id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/comments/:id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete a comment by id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user registration(if registration successed, log in)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,6 +379,34 @@
   </si>
   <si>
     <t>logged in, show SEARCH_RESULT_VIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /users/:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /users/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT /api/v1/user/:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional: fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional: id, name, email, gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>required: name, email, passwd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -467,11 +438,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Abadi MT Condensed Extra Bold"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -493,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -501,9 +467,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -816,13 +779,13 @@
     </row>
     <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -831,59 +794,59 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -892,59 +855,59 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -953,20 +916,20 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -975,7 +938,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1157,14 +1120,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1173,445 +1136,371 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="76.5" customWidth="1"/>
-    <col min="4" max="4" width="49.1640625" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" customWidth="1"/>
-    <col min="6" max="6" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" customWidth="1"/>
+    <col min="4" max="4" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="23" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="23" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:4" ht="23" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:F6"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1622,7 +1511,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1653,56 +1542,56 @@
     </row>
     <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2054,7 +1943,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2085,98 +1974,98 @@
     </row>
     <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2503,7 +2392,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2537,77 +2426,77 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2944,8 +2833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2976,28 +2865,28 @@
     </row>
     <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3356,428 +3245,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="81.83203125" customWidth="1"/>
-    <col min="4" max="4" width="64.1640625" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>